--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>price</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>price_predicted</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>residuals</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -455,6 +465,12 @@
       <c r="C2" t="n">
         <v>35</v>
       </c>
+      <c r="D2" t="n">
+        <v>41.11111111111111</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.111111111111114</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -466,6 +482,12 @@
       <c r="C3" t="n">
         <v>60</v>
       </c>
+      <c r="D3" t="n">
+        <v>46.38888888888889</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-13.61111111111111</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -477,6 +499,12 @@
       <c r="C4" t="n">
         <v>20</v>
       </c>
+      <c r="D4" t="n">
+        <v>49.02777777777779</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.02777777777779</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -488,6 +516,12 @@
       <c r="C5" t="n">
         <v>50</v>
       </c>
+      <c r="D5" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-6.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -499,6 +533,12 @@
       <c r="C6" t="n">
         <v>50</v>
       </c>
+      <c r="D6" t="n">
+        <v>46.38888888888889</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3.611111111111107</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -510,6 +550,12 @@
       <c r="C7" t="n">
         <v>55</v>
       </c>
+      <c r="D7" t="n">
+        <v>49.02777777777779</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-5.972222222222214</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -520,6 +566,12 @@
       </c>
       <c r="C8" t="n">
         <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54.30555555555556</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-5.694444444444443</v>
       </c>
     </row>
   </sheetData>
